--- a/db-definition.xlsx
+++ b/db-definition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23309"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B83DFC5C-9FF3-447B-A4C1-F7A16EC481FA}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E326B26-E0CC-4836-9A68-3806101B9281}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="テンプレート" sheetId="2" r:id="rId3"/>
     <sheet name="members" sheetId="4" r:id="rId4"/>
     <sheet name="prefectures" sheetId="5" r:id="rId5"/>
+    <sheet name="statuses" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>改定履歴</t>
   </si>
@@ -664,7 +665,19 @@
     <t>prefecture_id</t>
   </si>
   <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
     <t>prefectureテーブルのidの外部キー</t>
+  </si>
+  <si>
+    <t>ステータスID</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>statusesテーブルのidの外部キー</t>
   </si>
   <si>
     <t>作成日時</t>
@@ -698,6 +711,15 @@
   </si>
   <si>
     <t>都道府県名</t>
+  </si>
+  <si>
+    <t>statuses</t>
+  </si>
+  <si>
+    <t>プレエントリーフォームを提出した人のステータスを管理するテーブル</t>
+  </si>
+  <si>
+    <t>ステータス名</t>
   </si>
 </sst>
 </file>
@@ -879,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -975,6 +997,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30117,61 +30140,61 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30202,11 +30225,11 @@
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30234,11 +30257,11 @@
         <v>30</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30262,11 +30285,11 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30288,11 +30311,11 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30320,11 +30343,11 @@
       <c r="K8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30346,11 +30369,11 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30374,11 +30397,11 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30400,11 +30423,11 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30428,8 +30451,8 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30473,49 +30496,49 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30548,7 +30571,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30564,7 +30587,7 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30580,7 +30603,7 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30596,7 +30619,7 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30612,7 +30635,7 @@
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30628,7 +30651,7 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30644,7 +30667,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30660,7 +30683,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30676,7 +30699,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30692,7 +30715,7 @@
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30708,7 +30731,7 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30724,7 +30747,7 @@
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30760,7 +30783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30783,56 +30806,56 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="12.75">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -30863,10 +30886,10 @@
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30894,10 +30917,10 @@
         <v>58</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12" ht="12.75">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30921,10 +30944,10 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" ht="12.75">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30948,10 +30971,10 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="12.75">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30975,10 +30998,10 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="12.75">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31002,10 +31025,10 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="12.75">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31029,10 +31052,10 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="12.75">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31053,88 +31076,106 @@
       <c r="H11" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="12.75">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
-        <v>77</v>
+      <c r="F12" s="24">
+        <v>11</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="41"/>
+      <c r="K12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="12.75">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33" t="s">
-        <v>77</v>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
+        <v>81</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="41"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="12.75">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="41"/>
+      <c r="C14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="12.75">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31148,10 +31189,10 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="12.75">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31165,7 +31206,7 @@
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31210,53 +31251,53 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>82</v>
+      <c r="B1" s="47" t="s">
+        <v>86</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>83</v>
+      <c r="B2" s="42" t="s">
+        <v>87</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -31289,7 +31330,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31317,13 +31358,13 @@
       <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>60</v>
@@ -31343,23 +31384,23 @@
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>56</v>
@@ -31369,35 +31410,35 @@
       <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" s="26" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31413,7 +31454,7 @@
       <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31429,7 +31470,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31445,7 +31486,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31461,7 +31502,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31477,7 +31518,7 @@
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31493,7 +31534,7 @@
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31509,7 +31550,7 @@
       <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31533,4 +31574,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E377F6BD-EF84-4964-A67C-099EDCE0C7FC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="41"/>
+    <col min="2" max="2" width="3.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="42"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="23">
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="24">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="42"/>
+      <c r="B6" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="24">
+        <v>100</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="42"/>
+      <c r="B7" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="42"/>
+      <c r="B8" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="42"/>
+      <c r="B9" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="42"/>
+      <c r="B10" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="42"/>
+      <c r="B11" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="42"/>
+      <c r="B12" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="42"/>
+      <c r="B13" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="42"/>
+      <c r="B14" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="42"/>
+      <c r="B15" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="42"/>
+      <c r="B16" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/db-definition.xlsx
+++ b/db-definition.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E326B26-E0CC-4836-9A68-3806101B9281}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97607789-F471-4968-888E-8092EC008D50}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
   <si>
     <t>改定履歴</t>
   </si>
@@ -63,6 +64,18 @@
   </si>
   <si>
     <t>prefectures</t>
+  </si>
+  <si>
+    <t>statuses</t>
+  </si>
+  <si>
+    <t>status_idカラム追加</t>
+  </si>
+  <si>
+    <t>ハッシュ化機能追加のため、name_hash及びfurigana_hashカラムを追加</t>
+  </si>
+  <si>
+    <t>暗号化機能に変更のため、phone_number及びbirthdayカラムの型を変更</t>
   </si>
   <si>
     <t>table_names</t>
@@ -632,10 +645,25 @@
     <t>VARCHAR</t>
   </si>
   <si>
+    <t>名前(ハッシュ)</t>
+  </si>
+  <si>
+    <t>name_hash</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
     <t>ふりがな</t>
   </si>
   <si>
     <t>furigana</t>
+  </si>
+  <si>
+    <t>ふりがな(ハッシュ)</t>
+  </si>
+  <si>
+    <t>furigana_hash</t>
   </si>
   <si>
     <t>メールアドレス</t>
@@ -656,13 +684,13 @@
     <t>birthday</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>都道府県ID</t>
   </si>
   <si>
     <t>prefecture_id</t>
+  </si>
+  <si>
+    <t>CHAR</t>
   </si>
   <si>
     <t>FOREIGN KEY</t>
@@ -711,9 +739,6 @@
   </si>
   <si>
     <t>都道府県名</t>
-  </si>
-  <si>
-    <t>statuses</t>
   </si>
   <si>
     <t>プレエントリーフォームを提出した人のステータスを管理するテーブル</t>
@@ -901,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1000,6 +1025,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1226,8 +1253,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1409,10 +1436,18 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="8">
+        <v>44090</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1437,10 +1472,18 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="8">
+        <v>44090</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1465,10 +1508,18 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1493,10 +1544,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8">
+        <v>44092</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -30140,11 +30199,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>11</v>
+      <c r="B1" s="46" t="s">
+        <v>15</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -30157,13 +30216,13 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>13</v>
+      <c r="B2" s="48" t="s">
+        <v>17</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -30176,13 +30235,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>15</v>
+      <c r="B3" s="48" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -30196,34 +30255,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
@@ -30235,26 +30294,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="42"/>
@@ -30267,20 +30326,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -30295,13 +30354,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30321,13 +30380,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30336,12 +30395,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -30353,18 +30412,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="19"/>
       <c r="H9" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -30379,20 +30438,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -30407,18 +30466,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="19"/>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -30433,20 +30492,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -30496,9 +30555,9 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -30509,11 +30568,11 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -30524,11 +30583,11 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -30540,34 +30599,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30779,18 +30838,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="21"/>
     <col min="2" max="2" width="3.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
@@ -30806,11 +30865,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -30822,10 +30881,10 @@
     </row>
     <row r="2" spans="1:12" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -30840,11 +30899,11 @@
     </row>
     <row r="3" spans="1:12" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -30856,35 +30915,35 @@
     </row>
     <row r="4" spans="1:12" ht="12.75">
       <c r="A4" s="42"/>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="E4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="F4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
+      <c r="G4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>18</v>
       </c>
       <c r="L4" s="42"/>
     </row>
@@ -30895,26 +30954,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="24">
         <v>11</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="42"/>
@@ -30926,20 +30985,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F6" s="24">
         <v>100</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -30952,25 +31011,23 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>62</v>
+      <c r="C7" s="28" t="s">
+        <v>66</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
+      <c r="D7" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
-      <c r="F7" s="24">
-        <v>100</v>
+      <c r="F7" s="24"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" ht="12.75">
@@ -30980,20 +31037,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="24">
         <v>100</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -31006,25 +31063,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>66</v>
+      <c r="C9" s="28" t="s">
+        <v>71</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>67</v>
+      <c r="D9" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
-      <c r="F9" s="24">
-        <v>11</v>
+      <c r="F9" s="24"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -31034,24 +31089,24 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F10" s="24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -31061,28 +31116,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>72</v>
+      <c r="D11" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
-      <c r="F11" s="27">
-        <v>2</v>
+      <c r="F11" s="24">
+        <v>100</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="I11" s="25"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="K11" s="25"/>
       <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -31092,30 +31143,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>76</v>
+      <c r="D12" s="12" t="s">
+        <v>78</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>55</v>
+      <c r="E12" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="24">
-        <v>11</v>
+        <v>100</v>
       </c>
-      <c r="G12" s="25">
-        <v>1</v>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26" t="s">
+        <v>60</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="25" t="s">
-        <v>77</v>
-      </c>
+      <c r="K12" s="14"/>
       <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -31125,70 +31170,88 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25" t="s">
+      <c r="E13" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="F13" s="27">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="42"/>
-      <c r="B14" s="29">
+      <c r="B14" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="24">
+        <v>11</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>83</v>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25" t="s">
+        <v>86</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="33"/>
       <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="12.75">
       <c r="A15" s="42"/>
-      <c r="B15" s="29">
+      <c r="B15" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
+      <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -31197,16 +31260,40 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="25"/>
       <c r="L16" s="42"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -31227,7 +31314,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="F8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -31251,11 +31338,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>86</v>
+      <c r="B1" s="49" t="s">
+        <v>95</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -31266,10 +31353,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -31283,11 +31370,11 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -31299,34 +31386,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31336,23 +31423,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F5" s="27">
         <v>2</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="25"/>
@@ -31364,20 +31451,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F6" s="24">
         <v>100</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -31390,20 +31477,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -31416,24 +31503,24 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -31608,11 +31695,11 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>89</v>
+      <c r="B1" s="49" t="s">
+        <v>11</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
@@ -31623,10 +31710,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -31640,11 +31727,11 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -31656,34 +31743,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="42"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31693,26 +31780,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="24">
         <v>11</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K5" s="25"/>
     </row>
@@ -31723,20 +31810,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F6" s="24">
         <v>100</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -31749,20 +31836,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -31775,24 +31862,24 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="33" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I8" s="33"/>
       <c r="J8" s="33" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K8" s="33"/>
     </row>
